--- a/data/long_dif/P23_7-Estudios-long_dif.xlsx
+++ b/data/long_dif/P23_7-Estudios-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>32,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>22,89%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27,47%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20,87%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,47; 45,1</t>
+          <t>20,55; 50,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,08; 22,47</t>
+          <t>12,17; 23,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,35; 30,86</t>
+          <t>10,08; 26,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,13; 23,82</t>
+          <t>17,54; 31,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,79; 34,82</t>
+          <t>13,87; 23,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,4; 21,36</t>
+          <t>16,03; 30,88</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21,36; 38,5</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>14,31; 21,41</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16,12; 27,53</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>52,5%</t>
+          <t>52,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>60,67%</t>
+          <t>60,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>56,24%</t>
+          <t>62,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62,66%</t>
+          <t>57,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>54,55%</t>
+          <t>62,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>61,73%</t>
+          <t>56,51%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>54,95%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>61,93%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>59,0%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,63; 64,39</t>
+          <t>36,59; 63,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,39; 67,88</t>
+          <t>48,73; 68,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>48,55; 63,84</t>
+          <t>50,74; 76,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>55,81; 68,93</t>
+          <t>47,93; 65,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,94; 61,46</t>
+          <t>56,52; 68,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,62; 66,48</t>
+          <t>47,57; 64,95</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>45,71; 61,92</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>55,51; 66,63</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>51,94; 67,22</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>20,6%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>17,58%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20,23%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>20,13%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,23; 25,23</t>
+          <t>9,11; 23,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,31; 36,84</t>
+          <t>14,43; 38,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,79; 26,57</t>
+          <t>11,68; 29,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,92; 25,0</t>
+          <t>13,1; 26,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,08; 24,02</t>
+          <t>13,97; 24,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,3; 27,87</t>
+          <t>14,81; 27,98</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12,88; 22,39</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15,97; 28,83</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14,63; 25,58</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,72; 21,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,67; 19,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,99; 24,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,58; 15,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,13; 22,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,7; 17,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>64,99%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>67,58%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>63,56%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>69,43%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>64,28%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>68,48%</t>
+          <t>17,92%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,33%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14,25%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,7%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>59,26; 70,68</t>
+          <t>12,53; 20,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>61,85; 73,09</t>
+          <t>11,25; 21,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>58,2; 68,23</t>
+          <t>15,94; 27,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>65,14; 73,44</t>
+          <t>15,93; 25,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>60,61; 67,84</t>
+          <t>10,61; 16,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,98; 71,68</t>
+          <t>14,09; 22,67</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15,35; 21,6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>11,74; 17,43</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,52; 23,49</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>63,89%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>67,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>55,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>62,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>69,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>62,16%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>63,14%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>68,26%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>58,97%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,0; 23,27</t>
+          <t>56,95; 70,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,93; 21,31</t>
+          <t>61,75; 72,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,09; 20,01</t>
+          <t>48,26; 62,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,08; 20,99</t>
+          <t>56,68; 67,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,26; 20,13</t>
+          <t>64,83; 73,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,92; 20,14</t>
+          <t>56,45; 67,15</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>58,49; 67,29</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>64,76; 71,46</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>54,26; 63,22</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>22,67%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>19,92%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18,52%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>17,49%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>21,33%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,03; 21,55</t>
+          <t>14,52; 27,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,1; 22,32</t>
+          <t>14,06; 21,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,56; 19,84</t>
+          <t>17,31; 31,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,2; 12,48</t>
+          <t>13,6; 21,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,18; 18,78</t>
+          <t>14,27; 21,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,28; 16,07</t>
+          <t>16,07; 24,76</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>15,36; 23,23</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14,63; 19,98</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17,75; 25,83</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>69,27%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>71,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>72,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>72,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>70,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>71,76%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>62,5; 75,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>65,61; 76,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>67,16; 76,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>68,29; 76,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>66,58; 74,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>68,21; 74,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>12,35%</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17,21%</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>11,48%</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>15,81%</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>12,03%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>12,53%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>18,37%</t>
-        </is>
-      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>12,33%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14,13%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>13,17%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11,92%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11,72; 21,4</t>
+          <t>8,82; 17,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,89; 15,81</t>
+          <t>13,08; 23,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,5; 16,35</t>
+          <t>7,8; 16,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>15,14; 21,83</t>
+          <t>12,19; 20,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,53; 17,27</t>
+          <t>7,04; 12,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,89; 17,8</t>
+          <t>9,04; 16,99</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>11,36; 17,22</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10,88; 16,43</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>9,38; 14,79</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>18,97%</t>
+          <t>71,34%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>70,68%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>63,33%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>72,11%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>71,96%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>69,3%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>71,74%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>71,34%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>66,43%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>15,81; 22,95</t>
+          <t>64,38; 77,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>13,47; 19,23</t>
+          <t>64,58; 75,23</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,57; 22,28</t>
+          <t>54,12; 69,26</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>11,56; 15,18</t>
+          <t>66,15; 76,45</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>17,13; 21,82</t>
+          <t>67,6; 75,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,87; 16,28</t>
+          <t>63,89; 74,29</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>67,45; 75,49</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>67,8; 74,73</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>62,16; 70,38</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>64,08%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>67,31%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>64,69%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>64,39%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>68,07%</t>
+          <t>18,38%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>14,14%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>15,49%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>21,65%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>60,09; 68,04</t>
+          <t>11,42; 22,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>63,55; 70,91</t>
+          <t>8,9; 15,87</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>61,37; 67,87</t>
+          <t>19,67; 35,61</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>65,99; 71,18</t>
+          <t>8,81; 16,23</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>61,33; 67,02</t>
+          <t>15,56; 22,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>65,75; 70,35</t>
+          <t>14,63; 23,08</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>11,37; 18,18</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>12,98; 18,0</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>18,41; 26,26</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,924 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14,06; 20,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>14,11; 20,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>13,88; 18,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,88; 20,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>14,55; 18,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>15,67; 19,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>23,54%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>18,28%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>21,07%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>16,67; 32,96</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>12,64; 25,28</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>16,53; 26,31</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>60,7%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>63,62%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>62,07%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>51,17; 69,58</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>55,17; 70,81</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>55,72; 67,7</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>15,76%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>18,1%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>16,86%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>9,85; 21,58</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>12,63; 25,26</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>12,7; 21,21</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>18,79%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>16,32%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>17,4%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>19,16%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>13,07%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>17,14%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>18,98%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>14,66%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>17,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>15,66; 22,63</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>13,55; 20,04</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>14,19; 20,91</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>16,74; 22,24</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>11,37; 14,99</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>14,31; 20,2</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>17,01; 21,45</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>13,18; 16,57</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>15,28; 19,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>63,82%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>67,1%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>59,68%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>64,53%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>68,69%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>63,32%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>64,18%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>67,91%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>61,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>58,83; 67,63</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>62,97; 70,26</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>54,52; 64,34</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>61,4; 67,63</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>66,11; 71,59</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>59,78; 66,73</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>61,25; 66,47</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>65,4; 69,81</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>58,34; 64,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>17,39%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>16,58%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>22,92%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>16,31%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>18,25%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>19,54%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>16,84%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>17,43%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>21,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>14,23; 21,34</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>14,0; 20,16</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>18,92; 27,82</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>13,84; 18,66</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>15,86; 20,37</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>16,85; 22,61</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>15,0; 19,29</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>15,8; 19,62</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>18,74; 23,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
